--- a/couse/excelfolder/Книга1.xlsx
+++ b/couse/excelfolder/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>budget</t>
   </si>
@@ -33,6 +33,18 @@
   </si>
   <si>
     <t>ID</t>
+  </si>
+  <si>
+    <t>lost_the_last_of_the_parents_in_the_period_of_study</t>
+  </si>
+  <si>
+    <t>in_custody</t>
+  </si>
+  <si>
+    <t>disabled_students</t>
+  </si>
+  <si>
+    <t>orphan students</t>
   </si>
 </sst>
 </file>
@@ -351,15 +363,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -369,16 +381,124 @@
       <c r="C1" t="s">
         <v>1</v>
       </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
       <c r="C2">
         <v>0</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>4</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/couse/excelfolder/Книга1.xlsx
+++ b/couse/excelfolder/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>budget</t>
   </si>
@@ -32,9 +32,6 @@
     <t>paid</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
     <t>lost_the_last_of_the_parents_in_the_period_of_study</t>
   </si>
   <si>
@@ -44,7 +41,97 @@
     <t>disabled_students</t>
   </si>
   <si>
-    <t>orphan students</t>
+    <t>from_Minsk</t>
+  </si>
+  <si>
+    <t>from_the_countryside</t>
+  </si>
+  <si>
+    <t>from_other_regions</t>
+  </si>
+  <si>
+    <t>from_CIS_countries</t>
+  </si>
+  <si>
+    <t>from_other_countries</t>
+  </si>
+  <si>
+    <t>in_dorm</t>
+  </si>
+  <si>
+    <t>in_a_private_apartment</t>
+  </si>
+  <si>
+    <t>houses</t>
+  </si>
+  <si>
+    <t>at_full_state_providing</t>
+  </si>
+  <si>
+    <t>have_a_guardian</t>
+  </si>
+  <si>
+    <t>orphan_students</t>
+  </si>
+  <si>
+    <t>underage_students</t>
+  </si>
+  <si>
+    <t>single_parent_students</t>
+  </si>
+  <si>
+    <t>students_from_large_families</t>
+  </si>
+  <si>
+    <t>students_with_disabled_parents_1_2_groups</t>
+  </si>
+  <si>
+    <t>affected_by_the_Chernobyl_accident</t>
+  </si>
+  <si>
+    <t>disaster_victims</t>
+  </si>
+  <si>
+    <t>refugee_families</t>
+  </si>
+  <si>
+    <t>parents_died_during_passage_of_military_or_police_services</t>
+  </si>
+  <si>
+    <t>internal_control_students</t>
+  </si>
+  <si>
+    <t>underperforming_students</t>
+  </si>
+  <si>
+    <t>family_students</t>
+  </si>
+  <si>
+    <t>students_with_children</t>
+  </si>
+  <si>
+    <t>with_severe_chronic_diseases</t>
+  </si>
+  <si>
+    <t>student_activists</t>
+  </si>
+  <si>
+    <t>FIO</t>
+  </si>
+  <si>
+    <t>number_of_group</t>
+  </si>
+  <si>
+    <t>Loooo</t>
+  </si>
+  <si>
+    <t>Laaaa</t>
+  </si>
+  <si>
+    <t>Luuuu</t>
+  </si>
+  <si>
+    <t>Leeee</t>
   </si>
 </sst>
 </file>
@@ -363,141 +450,501 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="O1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+      <c r="AB2">
+        <v>1</v>
+      </c>
+      <c r="AC2">
+        <v>1</v>
+      </c>
+      <c r="AD2">
+        <v>1</v>
+      </c>
+      <c r="AE2">
+        <v>1</v>
+      </c>
+      <c r="AF2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>1</v>
+      </c>
+      <c r="R3">
+        <v>1</v>
+      </c>
+      <c r="S3">
+        <v>1</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3">
+        <v>1</v>
+      </c>
+      <c r="V3">
+        <v>1</v>
+      </c>
+      <c r="W3">
+        <v>1</v>
+      </c>
+      <c r="X3">
+        <v>1</v>
+      </c>
+      <c r="Y3">
+        <v>1</v>
+      </c>
+      <c r="Z3">
+        <v>1</v>
+      </c>
+      <c r="AA3">
+        <v>1</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>1</v>
+      </c>
+      <c r="AD3">
+        <v>1</v>
+      </c>
+      <c r="AE3">
+        <v>1</v>
+      </c>
+      <c r="AF3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+      <c r="AB4">
+        <v>1</v>
+      </c>
+      <c r="AC4">
+        <v>1</v>
+      </c>
+      <c r="AD4">
+        <v>1</v>
+      </c>
+      <c r="AE4">
+        <v>1</v>
+      </c>
+      <c r="AF4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>16</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>17</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>3</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>18</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>4</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>19</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
       <c r="F5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>1</v>
+      </c>
+      <c r="AC5">
+        <v>1</v>
+      </c>
+      <c r="AD5">
+        <v>1</v>
+      </c>
+      <c r="AE5">
+        <v>1</v>
+      </c>
+      <c r="AF5">
         <v>1</v>
       </c>
     </row>

--- a/couse/excelfolder/Книга1.xlsx
+++ b/couse/excelfolder/Книга1.xlsx
@@ -122,16 +122,16 @@
     <t>number_of_group</t>
   </si>
   <si>
-    <t>Loooo1</t>
-  </si>
-  <si>
-    <t>Laaaa2</t>
-  </si>
-  <si>
-    <t>Luuuu3</t>
-  </si>
-  <si>
-    <t>Leeee4</t>
+    <t>sfvx</t>
+  </si>
+  <si>
+    <t>szdvx</t>
+  </si>
+  <si>
+    <t>dxc</t>
+  </si>
+  <si>
+    <t>Qszd</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:AF5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -754,7 +754,7 @@
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4">
         <v>8</v>
@@ -852,7 +852,7 @@
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5">
         <v>5</v>
